--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_64ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1477,28 +1477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>42.40175964013626</v>
+        <v>54.59736025381427</v>
       </c>
       <c r="AB2" t="n">
-        <v>58.01595817322917</v>
+        <v>74.70251696478174</v>
       </c>
       <c r="AC2" t="n">
-        <v>52.47899655109646</v>
+        <v>67.57301359132092</v>
       </c>
       <c r="AD2" t="n">
-        <v>42401.75964013625</v>
+        <v>54597.36025381427</v>
       </c>
       <c r="AE2" t="n">
-        <v>58015.95817322916</v>
+        <v>74702.51696478174</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.165326468789894e-06</v>
+        <v>1.510799176755071e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.8603515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>52478.99655109646</v>
+        <v>67573.01359132091</v>
       </c>
     </row>
     <row r="3">
@@ -1583,28 +1583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.49829708439471</v>
+        <v>52.69389769807593</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.41155672946883</v>
+        <v>72.09811552118055</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.1231555259245</v>
+        <v>65.21717256619581</v>
       </c>
       <c r="AD3" t="n">
-        <v>40498.29708439471</v>
+        <v>52693.89769807593</v>
       </c>
       <c r="AE3" t="n">
-        <v>55411.55672946884</v>
+        <v>72098.11552118055</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.609095226507103e-06</v>
+        <v>1.592908015439158e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.764322916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>50123.15552592449</v>
+        <v>65217.17256619581</v>
       </c>
     </row>
   </sheetData>
@@ -1880,28 +1880,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.25065678582538</v>
+        <v>51.01436891854547</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.70448023096923</v>
+        <v>69.80011014944776</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.57900001253969</v>
+        <v>63.13848560186969</v>
       </c>
       <c r="AD2" t="n">
-        <v>39250.65678582538</v>
+        <v>51014.36891854547</v>
       </c>
       <c r="AE2" t="n">
-        <v>53704.48023096923</v>
+        <v>69800.11014944776</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.682295722147883e-06</v>
+        <v>1.654979560593825e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.809895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>48579.00001253969</v>
+        <v>63138.48560186969</v>
       </c>
     </row>
   </sheetData>
@@ -2177,28 +2177,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.32588806831297</v>
+        <v>60.70407921348313</v>
       </c>
       <c r="AB2" t="n">
-        <v>68.85810027652869</v>
+        <v>83.05799925482302</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.28637982910253</v>
+        <v>75.13106037859637</v>
       </c>
       <c r="AD2" t="n">
-        <v>50325.88806831297</v>
+        <v>60704.07921348313</v>
       </c>
       <c r="AE2" t="n">
-        <v>68858.10027652868</v>
+        <v>83057.99925482302</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.738945097465042e-06</v>
+        <v>1.648192775296039e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.267252604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>62286.37982910253</v>
+        <v>75131.06037859638</v>
       </c>
     </row>
   </sheetData>
@@ -2474,28 +2474,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.67092683449306</v>
+        <v>60.55747153467267</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.96195342156639</v>
+        <v>82.85740416080034</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.47575997222756</v>
+        <v>74.94960979881019</v>
       </c>
       <c r="AD2" t="n">
-        <v>49670.92683449306</v>
+        <v>60557.47153467267</v>
       </c>
       <c r="AE2" t="n">
-        <v>67961.95342156639</v>
+        <v>82857.40416080035</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.368362622746199e-06</v>
+        <v>1.699066933209469e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.005208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>61475.75997222756</v>
+        <v>74949.60979881018</v>
       </c>
     </row>
   </sheetData>
@@ -2771,28 +2771,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>52.21998364947056</v>
+        <v>62.35181280103554</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.44968541226676</v>
+        <v>85.31250104218657</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.63062771679918</v>
+        <v>77.17039567958778</v>
       </c>
       <c r="AD2" t="n">
-        <v>52219.98364947056</v>
+        <v>62351.81280103554</v>
       </c>
       <c r="AE2" t="n">
-        <v>71449.68541226676</v>
+        <v>85312.50104218657</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.980103468649596e-06</v>
+        <v>1.554332704266584e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.610677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64630.62771679919</v>
+        <v>77170.39567958779</v>
       </c>
     </row>
   </sheetData>
@@ -3068,28 +3068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.56203560736889</v>
+        <v>51.43926593496363</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.13052247166709</v>
+        <v>70.3814729924442</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.96438137974066</v>
+        <v>63.6643639910786</v>
       </c>
       <c r="AD2" t="n">
-        <v>39562.03560736889</v>
+        <v>51439.26593496363</v>
       </c>
       <c r="AE2" t="n">
-        <v>54130.52247166709</v>
+        <v>70381.47299244421</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.662499967491372e-06</v>
+        <v>1.637874021797912e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.798502604166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>48964.38137974065</v>
+        <v>63664.3639910786</v>
       </c>
     </row>
   </sheetData>
@@ -3365,28 +3365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>54.69491352845742</v>
+        <v>74.20875064348307</v>
       </c>
       <c r="AB2" t="n">
-        <v>74.83599365889516</v>
+        <v>101.5356864893948</v>
       </c>
       <c r="AC2" t="n">
-        <v>67.69375145708395</v>
+        <v>91.84526307710344</v>
       </c>
       <c r="AD2" t="n">
-        <v>54694.91352845742</v>
+        <v>74208.75064348307</v>
       </c>
       <c r="AE2" t="n">
-        <v>74835.99365889517</v>
+        <v>101535.6864893948</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.368027011762036e-06</v>
+        <v>1.459912697870524e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.928059895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>67693.75145708394</v>
+        <v>91845.26307710345</v>
       </c>
     </row>
   </sheetData>
@@ -3662,28 +3662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.60783055762589</v>
+        <v>50.00312122428564</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.82493702605927</v>
+        <v>68.41647644106253</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.78339917665708</v>
+        <v>61.88690395267018</v>
       </c>
       <c r="AD2" t="n">
-        <v>38607.83055762589</v>
+        <v>50003.12122428564</v>
       </c>
       <c r="AE2" t="n">
-        <v>52824.93702605927</v>
+        <v>68416.47644106252</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.640844600085088e-06</v>
+        <v>1.693593600026313e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>47783.39917665708</v>
+        <v>61886.90395267018</v>
       </c>
     </row>
   </sheetData>
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.12073342881862</v>
+        <v>50.76661069482604</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.52671336209947</v>
+        <v>69.4611164174336</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.41819896413697</v>
+        <v>62.83184495585817</v>
       </c>
       <c r="AD2" t="n">
-        <v>39120.73342881862</v>
+        <v>50766.61069482604</v>
       </c>
       <c r="AE2" t="n">
-        <v>53526.71336209947</v>
+        <v>69461.1164174336</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.653317465454204e-06</v>
+        <v>1.663776015375813e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.834309895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>48418.19896413697</v>
+        <v>62831.84495585816</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.96685051224799</v>
+        <v>53.05970595162066</v>
       </c>
       <c r="AB2" t="n">
-        <v>56.05265220057294</v>
+        <v>72.59863051200135</v>
       </c>
       <c r="AC2" t="n">
-        <v>50.70306574505148</v>
+        <v>65.66991910877003</v>
       </c>
       <c r="AD2" t="n">
-        <v>40966.85051224799</v>
+        <v>53059.70595162066</v>
       </c>
       <c r="AE2" t="n">
-        <v>56052.65220057293</v>
+        <v>72598.63051200136</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.430495129751718e-06</v>
+        <v>1.570537300381732e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.81640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>50703.06574505148</v>
+        <v>65669.91910877003</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.03513455324624</v>
+        <v>52.12798999261877</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.77783732106581</v>
+        <v>71.3238156324885</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.54991740842679</v>
+        <v>64.51677077214356</v>
       </c>
       <c r="AD3" t="n">
-        <v>40035.13455324624</v>
+        <v>52127.98999261876</v>
       </c>
       <c r="AE3" t="n">
-        <v>54777.83732106581</v>
+        <v>71323.81563248851</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.672834572691589e-06</v>
+        <v>1.61568330054341e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.765950520833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>49549.91740842679</v>
+        <v>64516.77077214356</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.63505898347433</v>
+        <v>49.75554247258615</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.8621921595383</v>
+        <v>68.07772827058379</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.8170987324849</v>
+        <v>61.58048543214579</v>
       </c>
       <c r="AD2" t="n">
-        <v>38635.05898347433</v>
+        <v>49755.54247258615</v>
       </c>
       <c r="AE2" t="n">
-        <v>52862.1921595383</v>
+        <v>68077.72827058379</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.46053984622784e-06</v>
+        <v>1.695912974333428e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.9580078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>47817.0987324849</v>
+        <v>61580.48543214578</v>
       </c>
     </row>
   </sheetData>
@@ -4956,28 +4956,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.69715607890988</v>
+        <v>60.25715373976121</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.99784143093007</v>
+        <v>82.44649610471666</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.50822288034672</v>
+        <v>74.5779182308859</v>
       </c>
       <c r="AD2" t="n">
-        <v>49697.15607890989</v>
+        <v>60257.15373976121</v>
       </c>
       <c r="AE2" t="n">
-        <v>67997.84143093007</v>
+        <v>82446.49610471666</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.046917023778924e-06</v>
+        <v>1.683465365117394e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.145182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>61508.22288034672</v>
+        <v>74577.9182308859</v>
       </c>
     </row>
   </sheetData>
@@ -7786,28 +7786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>50.86768444782783</v>
+        <v>61.04781830470112</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.59940998534989</v>
+        <v>83.52831824412569</v>
       </c>
       <c r="AC2" t="n">
-        <v>62.9569399797488</v>
+        <v>75.55649278365698</v>
       </c>
       <c r="AD2" t="n">
-        <v>50867.68444782784</v>
+        <v>61047.81830470113</v>
       </c>
       <c r="AE2" t="n">
-        <v>69599.40998534989</v>
+        <v>83528.31824412568</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.438132488095587e-06</v>
+        <v>1.616942722620608e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.400716145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>62956.9399797488</v>
+        <v>75556.49278365698</v>
       </c>
     </row>
   </sheetData>
@@ -8083,28 +8083,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>69.08708868116882</v>
+        <v>87.94125116265751</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.52800264078108</v>
+        <v>120.3250995348851</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.50638273965311</v>
+        <v>108.8414409126449</v>
       </c>
       <c r="AD2" t="n">
-        <v>69087.08868116883</v>
+        <v>87941.25116265751</v>
       </c>
       <c r="AE2" t="n">
-        <v>94528.00264078108</v>
+        <v>120325.0995348851</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.499947952785703e-06</v>
+        <v>1.308177450367429e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.484700520833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>85506.38273965311</v>
+        <v>108841.4409126449</v>
       </c>
     </row>
   </sheetData>
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.85884841630183</v>
+        <v>50.3821047174582</v>
       </c>
       <c r="AB2" t="n">
-        <v>53.16839073442438</v>
+        <v>68.93501837599267</v>
       </c>
       <c r="AC2" t="n">
-        <v>48.09407414513716</v>
+        <v>62.35595697310894</v>
       </c>
       <c r="AD2" t="n">
-        <v>38858.84841630182</v>
+        <v>50382.10471745821</v>
       </c>
       <c r="AE2" t="n">
-        <v>53168.39073442438</v>
+        <v>68935.01837599267</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.650088730973781e-06</v>
+        <v>1.678617357604234e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.852213541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>48094.07414513716</v>
+        <v>62355.95697310894</v>
       </c>
     </row>
   </sheetData>
@@ -8677,28 +8677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>40.00414275240917</v>
+        <v>51.99097345653661</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.73543297189897</v>
+        <v>71.13634356307803</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.51156007082944</v>
+        <v>64.34719077391888</v>
       </c>
       <c r="AD2" t="n">
-        <v>40004.14275240917</v>
+        <v>51990.97345653661</v>
       </c>
       <c r="AE2" t="n">
-        <v>54735.43297189897</v>
+        <v>71136.34356307803</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.608988770210392e-06</v>
+        <v>1.615383963007412e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.793619791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>49511.56007082944</v>
+        <v>64347.19077391888</v>
       </c>
     </row>
     <row r="3">
@@ -8783,28 +8783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.86220424583835</v>
+        <v>51.84903494996578</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.54122644532475</v>
+        <v>70.94213703650294</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.3358883425803</v>
+        <v>64.17151904566948</v>
       </c>
       <c r="AD3" t="n">
-        <v>39862.20424583835</v>
+        <v>51849.03494996578</v>
       </c>
       <c r="AE3" t="n">
-        <v>54541.22644532475</v>
+        <v>70942.13703650294</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.665546318154589e-06</v>
+        <v>1.625996377354172e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1.7822265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>49335.88834258031</v>
+        <v>64171.51904566948</v>
       </c>
     </row>
   </sheetData>
@@ -9080,28 +9080,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.08529883592726</v>
+        <v>116.4805368710554</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.8904360332732</v>
+        <v>159.3738093055207</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.2573838925909</v>
+        <v>144.1633966279919</v>
       </c>
       <c r="AD2" t="n">
-        <v>89085.29883592726</v>
+        <v>116480.5368710554</v>
       </c>
       <c r="AE2" t="n">
-        <v>121890.4360332732</v>
+        <v>159373.8093055207</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.225650207363051e-06</v>
+        <v>1.056803048599977e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.697265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>110257.3838925909</v>
+        <v>144163.3966279919</v>
       </c>
     </row>
   </sheetData>
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.59784547164512</v>
+        <v>60.32654109996731</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.8619602767957</v>
+        <v>82.54143495210486</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.38531003285249</v>
+        <v>74.66379624792694</v>
       </c>
       <c r="AD2" t="n">
-        <v>49597.84547164512</v>
+        <v>60326.54109996731</v>
       </c>
       <c r="AE2" t="n">
-        <v>67861.9602767957</v>
+        <v>82541.43495210487</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.235950770077453e-06</v>
+        <v>1.696015718270431e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.0654296875</v>
       </c>
       <c r="AH2" t="n">
-        <v>61385.31003285249</v>
+        <v>74663.79624792693</v>
       </c>
     </row>
   </sheetData>
@@ -9674,28 +9674,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.62242842272452</v>
+        <v>49.88373575150085</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.84491046909949</v>
+        <v>68.2531279702831</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.8014663823265</v>
+        <v>61.73914523068088</v>
       </c>
       <c r="AD2" t="n">
-        <v>38622.42842272452</v>
+        <v>49883.73575150085</v>
       </c>
       <c r="AE2" t="n">
-        <v>52844.91046909949</v>
+        <v>68253.12797028311</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.552912253940527e-06</v>
+        <v>1.694489386697962e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>2</v>
+        <v>1.9140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>47801.4663823265</v>
+        <v>61739.14523068089</v>
       </c>
     </row>
   </sheetData>
